--- a/Header/Assets/UI/Dialogue/DataSheets/Weapon_Table.xlsx
+++ b/Header/Assets/UI/Dialogue/DataSheets/Weapon_Table.xlsx
@@ -1238,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="G1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1793,8 +1793,8 @@
       <c r="D16" s="9">
         <v>1</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>74</v>
+      <c r="E16" s="9">
+        <v>1</v>
       </c>
       <c r="F16" s="9">
         <v>1</v>
@@ -1833,7 +1833,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>

--- a/Header/Assets/UI/Dialogue/DataSheets/Weapon_Table.xlsx
+++ b/Header/Assets/UI/Dialogue/DataSheets/Weapon_Table.xlsx
@@ -407,7 +407,7 @@
       <color theme="1"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -606,6 +606,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.599990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -887,7 +899,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -916,6 +928,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1238,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1430,38 +1460,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:11" s="10" customFormat="1">
+      <c r="A6" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="12">
         <v>10</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="12">
         <v>0.5</v>
       </c>
-      <c r="E6" s="9">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12">
         <v>0.8</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="12">
         <v>0</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="12">
         <v>0</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="0">
+      <c r="J6" s="10">
         <v>15</v>
       </c>
-      <c r="K6" s="0">
+      <c r="K6" s="10">
         <v>5</v>
       </c>
     </row>
@@ -1710,38 +1740,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:11" s="13" customFormat="1">
+      <c r="A14" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="15">
         <v>10</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="15">
         <v>0.8</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="15">
         <v>0.3</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="15">
         <v>0.8</v>
       </c>
-      <c r="G14" s="9">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9">
-        <v>1</v>
-      </c>
-      <c r="I14" s="0" t="s">
+      <c r="G14" s="15">
+        <v>1</v>
+      </c>
+      <c r="H14" s="15">
+        <v>1</v>
+      </c>
+      <c r="I14" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J14" s="0">
+      <c r="J14" s="13">
         <v>30</v>
       </c>
-      <c r="K14" s="0">
+      <c r="K14" s="13">
         <v>5</v>
       </c>
     </row>
@@ -1780,38 +1810,38 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:11" s="10" customFormat="1">
+      <c r="A16" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="12">
         <v>10</v>
       </c>
-      <c r="D16" s="9">
-        <v>1</v>
-      </c>
-      <c r="E16" s="9">
-        <v>1</v>
-      </c>
-      <c r="F16" s="9">
-        <v>1</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="D16" s="12">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1</v>
+      </c>
+      <c r="G16" s="12">
         <v>0</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="12">
         <v>0</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="I16" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="0">
+      <c r="J16" s="10">
         <v>15</v>
       </c>
-      <c r="K16" s="0">
+      <c r="K16" s="10">
         <v>1</v>
       </c>
     </row>

--- a/Header/Assets/UI/Dialogue/DataSheets/Weapon_Table.xlsx
+++ b/Header/Assets/UI/Dialogue/DataSheets/Weapon_Table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>ballName</t>
   </si>
@@ -252,6 +252,9 @@
   <si>
     <t>ㄴ</t>
   </si>
+  <si>
+    <t>\</t>
+  </si>
 </sst>
 </file>
 
@@ -407,7 +410,7 @@
       <color theme="1"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -618,6 +621,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -899,7 +926,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -946,6 +973,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="35" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1268,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1320,143 +1386,143 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:11" s="22" customFormat="1">
+      <c r="A2" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="24">
         <v>10</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="24">
         <v>0.7</v>
       </c>
-      <c r="E2" s="9">
-        <v>1</v>
-      </c>
-      <c r="F2" s="9">
+      <c r="E2" s="24">
+        <v>1</v>
+      </c>
+      <c r="F2" s="24">
         <v>1.5</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="24">
         <v>0</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="24">
         <v>0</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="25">
         <v>10</v>
       </c>
-      <c r="K2" s="0">
+      <c r="K2" s="22">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:11" s="26" customFormat="1">
+      <c r="A3" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="28">
         <v>10</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="28">
         <v>0.9</v>
       </c>
-      <c r="E3" s="9">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="E3" s="28">
+        <v>1</v>
+      </c>
+      <c r="F3" s="28">
         <v>0.7</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="28">
         <v>10</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="28">
         <v>10</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="0">
+      <c r="J3" s="26">
         <v>15</v>
       </c>
-      <c r="K3" s="0">
+      <c r="K3" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:11" s="19" customFormat="1">
+      <c r="A4" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="21">
         <v>10</v>
       </c>
-      <c r="D4" s="9">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9">
+      <c r="D4" s="21">
+        <v>1</v>
+      </c>
+      <c r="E4" s="21">
+        <v>1</v>
+      </c>
+      <c r="F4" s="21">
+        <v>1</v>
+      </c>
+      <c r="G4" s="21">
         <v>3</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="21">
         <v>3</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="0">
+      <c r="J4" s="19">
         <v>15</v>
       </c>
-      <c r="K4" s="0">
+      <c r="K4" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:11" s="19" customFormat="1">
+      <c r="A5" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="21">
         <v>10</v>
       </c>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="D5" s="21">
+        <v>1</v>
+      </c>
+      <c r="E5" s="21">
+        <v>1</v>
+      </c>
+      <c r="F5" s="21">
+        <v>1</v>
+      </c>
+      <c r="G5" s="21">
         <v>3</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="21">
         <v>5</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="0">
+      <c r="J5" s="19">
         <v>25</v>
       </c>
-      <c r="K5" s="0">
+      <c r="K5" s="19">
         <v>5</v>
       </c>
     </row>
@@ -1495,283 +1561,283 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:11" s="26" customFormat="1">
+      <c r="A7" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="28">
         <v>10</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="28">
         <v>0.2</v>
       </c>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="E7" s="28">
+        <v>1</v>
+      </c>
+      <c r="F7" s="28">
         <v>0.1</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="28">
         <v>0</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="28">
         <v>0</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="0">
+      <c r="J7" s="26">
         <v>20</v>
       </c>
-      <c r="K7" s="0">
+      <c r="K7" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:11" s="26" customFormat="1">
+      <c r="A8" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="28">
         <v>10</v>
       </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9">
-        <v>1</v>
-      </c>
-      <c r="F8" s="9">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="D8" s="28">
+        <v>0.7</v>
+      </c>
+      <c r="E8" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="F8" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="G8" s="28">
         <v>0</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="28">
         <v>0</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="0">
+      <c r="J8" s="26">
         <v>20</v>
       </c>
-      <c r="K8" s="0">
+      <c r="K8" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:11" s="26" customFormat="1">
+      <c r="A9" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="28">
         <v>10</v>
       </c>
-      <c r="D9" s="9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="D9" s="28">
+        <v>1</v>
+      </c>
+      <c r="E9" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="28">
+        <v>1</v>
+      </c>
+      <c r="G9" s="28">
         <v>0</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="28">
         <v>0</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="0">
+      <c r="J9" s="26">
         <v>20</v>
       </c>
-      <c r="K9" s="0">
+      <c r="K9" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:11" s="22" customFormat="1">
+      <c r="A10" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="24">
         <v>10</v>
       </c>
-      <c r="D10" s="9">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9">
-        <v>1</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="D10" s="24">
+        <v>1</v>
+      </c>
+      <c r="E10" s="24">
+        <v>5</v>
+      </c>
+      <c r="F10" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="24">
         <v>0</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="24">
         <v>0</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="0">
+      <c r="J10" s="22">
         <v>10</v>
       </c>
-      <c r="K10" s="0">
+      <c r="K10" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:11" s="26" customFormat="1">
+      <c r="A11" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="28">
         <v>10</v>
       </c>
-      <c r="D11" s="9">
-        <v>1</v>
-      </c>
-      <c r="E11" s="9">
-        <v>1</v>
-      </c>
-      <c r="F11" s="9">
-        <v>1</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="D11" s="28">
+        <v>1</v>
+      </c>
+      <c r="E11" s="28">
+        <v>1</v>
+      </c>
+      <c r="F11" s="28">
+        <v>1</v>
+      </c>
+      <c r="G11" s="28">
         <v>0</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="28">
         <v>0</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="0">
+      <c r="J11" s="26">
         <v>9</v>
       </c>
-      <c r="K11" s="0">
+      <c r="K11" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:11" s="26" customFormat="1">
+      <c r="A12" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="28">
         <v>10</v>
       </c>
-      <c r="D12" s="9">
-        <v>1</v>
-      </c>
-      <c r="E12" s="9">
-        <v>1</v>
-      </c>
-      <c r="F12" s="9">
-        <v>1</v>
-      </c>
-      <c r="G12" s="9">
+      <c r="D12" s="28">
+        <v>1</v>
+      </c>
+      <c r="E12" s="28">
+        <v>1</v>
+      </c>
+      <c r="F12" s="28">
+        <v>1</v>
+      </c>
+      <c r="G12" s="28">
         <v>0</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="28">
         <v>0</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="0">
+      <c r="J12" s="26">
         <v>30</v>
       </c>
-      <c r="K12" s="0">
+      <c r="K12" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:11" s="22" customFormat="1">
+      <c r="A13" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="24">
         <v>10</v>
       </c>
-      <c r="D13" s="9">
-        <v>1</v>
-      </c>
-      <c r="E13" s="9">
-        <v>1</v>
-      </c>
-      <c r="F13" s="9">
-        <v>1</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="D13" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="E13" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="F13" s="24">
+        <v>2</v>
+      </c>
+      <c r="G13" s="24">
         <v>0</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="24">
         <v>0</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="0">
+      <c r="J13" s="22">
         <v>30</v>
       </c>
-      <c r="K13" s="0">
+      <c r="K13" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="13" customFormat="1">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:11" s="16" customFormat="1">
+      <c r="A14" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="18">
         <v>10</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="18">
         <v>0.8</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="18">
         <v>0.3</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="18">
         <v>0.8</v>
       </c>
-      <c r="G14" s="15">
-        <v>1</v>
-      </c>
-      <c r="H14" s="15">
-        <v>1</v>
-      </c>
-      <c r="I14" s="13" t="s">
+      <c r="G14" s="18">
+        <v>1</v>
+      </c>
+      <c r="H14" s="18">
+        <v>1</v>
+      </c>
+      <c r="I14" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="16">
         <v>30</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="16">
         <v>5</v>
       </c>
     </row>

--- a/Header/Assets/UI/Dialogue/DataSheets/Weapon_Table.xlsx
+++ b/Header/Assets/UI/Dialogue/DataSheets/Weapon_Table.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="5" lowestEdited="5" rupBuild="9.104.208.51986"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon_Table" sheetId="2" r:id="rId1"/>
     <sheet name="Weapon_Description" sheetId="1" r:id="rId2"/>
+    <sheet name="Memo" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>ballName</t>
   </si>
@@ -193,8 +195,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t>allPrice</t>
     </r>
@@ -211,9 +211,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 전구다 전구에 적힌 숫자를 보니 </t>
     </r>
@@ -222,7 +219,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <scheme val="minor"/>
       </rPr>
       <t>9번 튕기는 전구</t>
     </r>
@@ -231,9 +227,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -242,7 +235,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <scheme val="minor"/>
       </rPr>
       <t>같다</t>
     </r>
@@ -251,32 +243,24 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>적의 공격을 그대로 따라한다. 단, 특수 공격은 따라 할수 없다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>검은 액체가 들어 있다. 끈적이는 것을 보아 발화성인 것 같아 조심히 다뤄야 할 것 같다.</t>
   </si>
   <si>
     <t>솜으로 이루어져 있어 매우 가볍다. 튕기는게 예측이 될 것 같지가 않다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>내구성이 약해 던지는 도중 깨진다. 깨지는 순간 유리파편으로 다중 데미지를 입힐수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>굳이 왜 합쳤는지 모르겠는 전구. 주변을 밝혀주고 얼음을 녹이는데 유용하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -287,9 +271,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 후 내 체력을 </t>
     </r>
@@ -298,75 +279,57 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <scheme val="minor"/>
       </rPr>
       <t>10% 만큼 회복한다.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>flavorText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>주변을 밝혀주며 잉크 전구가 깨지면서 흘러 나온 액체와 상호작용하여 발화 공격이 가능함.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>던지고자 하는 장소를 향해 정확하게 날아간다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>검은 액체가 들어 있다. 끈적이는 것을 보아 발화성인 것 같아 조심히 다뤄야 할 것 같다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>평범해 보이는 전구다 전구에 적힌 숫자를 보니 9번 튕기는 전구 같다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>조준경을 연상케하는 전구이다. 던지고자 하는 곳으로 정확하게 날라갈 것 같다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>따스한 기분이 느껴지는 전구다. 쓰라린 고통이 점차 잦아든다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>가장 완벽한 "구"로 이루어져있다. 약한 몬스터는 이 완벽함에 두려움을 느끼고 명중률이 떨어진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>의견</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>바꾸는가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>회의 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>(공격을 1회 방어한다, 반사한다 등)[바꾸는 의견]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>(광범위 확정 공격)[가장 비싸고 강한 1티어 전구 인걸로 기억]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>(그대로 유지해도 괜찮을 것 같음. 단 보스전 과 같이 특정 스테이지 에선 데미지 조절 필요)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>(잘 모르는 상태.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -377,102 +340,181 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 전구로 부딪쳤을 때 골드로 바뀜.)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(황금 전구로 부딪쳤을 때 골드로 바뀜.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="23">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
+      <color theme="1"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79992065187536243"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799920"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -496,36 +538,209 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499950"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599960"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.49995422223578601"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59996337778862885"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -536,7 +751,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -549,27 +763,256 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -579,16 +1022,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
@@ -597,31 +1040,28 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3">
@@ -636,21 +1076,79 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="4" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="11" builtinId="11"/>
+    <cellStyle name="계산" xfId="19" builtinId="22"/>
     <cellStyle name="나쁨" xfId="4" builtinId="27"/>
+    <cellStyle name="메모" xfId="10" builtinId="10"/>
+    <cellStyle name="백분율" xfId="7" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="20" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="5" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="8" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="21" builtinId="24"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="22" builtinId="25"/>
+    <cellStyle name="입력" xfId="17" builtinId="20"/>
+    <cellStyle name="제목" xfId="12" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="13" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="14" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="15" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="16" builtinId="19"/>
     <cellStyle name="좋음" xfId="3" builtinId="26"/>
+    <cellStyle name="출력" xfId="18" builtinId="21"/>
+    <cellStyle name="통화" xfId="6" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="9" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -916,27 +1414,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="20.25" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
-    <col min="7" max="7" width="12.25" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
-    <col min="9" max="9" width="147.75" customWidth="1"/>
+    <col min="1" max="1" width="20.25499916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="18.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="12.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="14.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="13.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="12.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="12.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" width="11.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" width="147.75500488" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -971,618 +1469,554 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:11" s="10" customFormat="1">
+      <c r="A2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>10</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="13">
         <v>0.7</v>
       </c>
-      <c r="E2" s="14">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14">
+      <c r="E2" s="13">
+        <v>1</v>
+      </c>
+      <c r="F2" s="13">
         <v>1.5</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="13">
         <v>0</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13">
         <v>0</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="14">
         <v>10</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:11" s="14" customFormat="1">
+      <c r="A3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <v>10</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>0.9</v>
       </c>
-      <c r="E3" s="18">
-        <v>1</v>
-      </c>
-      <c r="F3" s="18">
+      <c r="E3" s="17">
+        <v>1</v>
+      </c>
+      <c r="F3" s="17">
         <v>0.7</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="17">
         <v>10</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="17">
         <v>10</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="17">
         <v>15</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:11" s="7" customFormat="1">
+      <c r="A4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>10</v>
       </c>
-      <c r="D4" s="11">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11">
-        <v>1</v>
-      </c>
-      <c r="F4" s="11">
-        <v>1</v>
-      </c>
-      <c r="G4" s="11">
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10">
         <v>3</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>3</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>15</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:11" s="7" customFormat="1">
+      <c r="A5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>10</v>
       </c>
-      <c r="D5" s="11">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11">
-        <v>1</v>
-      </c>
-      <c r="F5" s="11">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11">
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10">
         <v>3</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>5</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>25</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:11" s="25" customFormat="1">
+      <c r="A6" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="27">
         <v>10</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="27">
         <v>0.5</v>
       </c>
-      <c r="E6" s="18">
-        <v>1</v>
-      </c>
-      <c r="F6" s="18">
+      <c r="E6" s="27">
+        <v>1</v>
+      </c>
+      <c r="F6" s="27">
         <v>0.8</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="27">
         <v>0</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="27">
         <v>0</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="27">
         <v>15</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="27">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:11" s="22" customFormat="1">
+      <c r="A7" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="27">
         <v>10</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="27">
         <v>0.2</v>
       </c>
-      <c r="E7" s="18">
-        <v>1</v>
-      </c>
-      <c r="F7" s="18">
+      <c r="E7" s="27">
+        <v>1</v>
+      </c>
+      <c r="F7" s="27">
         <v>0.1</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="27">
         <v>0</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="27">
         <v>0</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="27">
         <v>20</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="27">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:11" s="14" customFormat="1">
+      <c r="A8" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>10</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>0.7</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <v>0.01</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <v>0.9</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <v>0</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="17">
         <v>0</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="17">
         <v>20</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="22" customFormat="1">
       <c r="A9" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="23">
         <v>10</v>
       </c>
-      <c r="D9" s="20">
-        <v>1</v>
-      </c>
-      <c r="E9" s="20">
+      <c r="D9" s="23">
+        <v>1</v>
+      </c>
+      <c r="E9" s="23">
         <v>0.5</v>
       </c>
-      <c r="F9" s="20">
-        <v>1</v>
-      </c>
-      <c r="G9" s="20">
+      <c r="F9" s="23">
+        <v>1</v>
+      </c>
+      <c r="G9" s="23">
         <v>0</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="23">
         <v>0</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="23">
         <v>20</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="24" customFormat="1">
       <c r="A10" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="23">
         <v>10</v>
       </c>
-      <c r="D10" s="20">
-        <v>1</v>
-      </c>
-      <c r="E10" s="20">
+      <c r="D10" s="23">
+        <v>1</v>
+      </c>
+      <c r="E10" s="23">
         <v>5</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="23">
         <v>0.1</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="23">
         <v>0</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="23">
         <v>0</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="23">
         <v>10</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="22" customFormat="1">
       <c r="A11" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="23">
         <v>10</v>
       </c>
-      <c r="D11" s="20">
-        <v>1</v>
-      </c>
-      <c r="E11" s="20">
-        <v>1</v>
-      </c>
-      <c r="F11" s="20">
-        <v>1</v>
-      </c>
-      <c r="G11" s="20">
+      <c r="D11" s="23">
+        <v>1</v>
+      </c>
+      <c r="E11" s="23">
+        <v>1</v>
+      </c>
+      <c r="F11" s="23">
+        <v>1</v>
+      </c>
+      <c r="G11" s="23">
         <v>0</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="23">
         <v>0</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="23">
         <v>9</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:11" s="14" customFormat="1">
+      <c r="A12" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <v>10</v>
       </c>
-      <c r="D12" s="18">
-        <v>1</v>
-      </c>
-      <c r="E12" s="18">
-        <v>1</v>
-      </c>
-      <c r="F12" s="18">
-        <v>1</v>
-      </c>
-      <c r="G12" s="18">
+      <c r="D12" s="17">
+        <v>1</v>
+      </c>
+      <c r="E12" s="17">
+        <v>1</v>
+      </c>
+      <c r="F12" s="17">
         <v>0</v>
       </c>
-      <c r="H12" s="18">
+      <c r="G12" s="17">
         <v>0</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="H12" s="17">
+        <v>0</v>
+      </c>
+      <c r="I12" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="17">
         <v>30</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:11" s="10" customFormat="1">
+      <c r="A13" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <v>10</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>0.7</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <v>0.3</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="19">
         <v>2</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="19">
         <v>0</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="19">
         <v>0</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="19">
         <v>30</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:11" s="7" customFormat="1">
+      <c r="A14" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="17">
         <v>10</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="17">
         <v>0.8</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="17">
         <v>0.3</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="17">
         <v>0.8</v>
       </c>
-      <c r="G14" s="18">
-        <v>1</v>
-      </c>
-      <c r="H14" s="18">
-        <v>1</v>
-      </c>
-      <c r="I14" s="18" t="s">
+      <c r="G14" s="17">
+        <v>1</v>
+      </c>
+      <c r="H14" s="17">
+        <v>1</v>
+      </c>
+      <c r="I14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="17">
         <v>30</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:11">
+      <c r="A15" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="17">
         <v>10</v>
       </c>
-      <c r="D15" s="18">
-        <v>1</v>
-      </c>
-      <c r="E15" s="18">
-        <v>1</v>
-      </c>
-      <c r="F15" s="18">
-        <v>1</v>
-      </c>
-      <c r="G15" s="18">
+      <c r="D15" s="17">
+        <v>1</v>
+      </c>
+      <c r="E15" s="17">
+        <v>1</v>
+      </c>
+      <c r="F15" s="17">
+        <v>1</v>
+      </c>
+      <c r="G15" s="17">
         <v>9</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="17">
         <v>9</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="17">
         <v>15</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="17">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="25" customFormat="1">
       <c r="A16" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="23">
         <v>10</v>
       </c>
-      <c r="D16" s="20">
-        <v>1</v>
-      </c>
-      <c r="E16" s="20">
-        <v>1</v>
-      </c>
-      <c r="F16" s="20">
-        <v>1</v>
-      </c>
-      <c r="G16" s="20">
+      <c r="D16" s="23">
+        <v>1</v>
+      </c>
+      <c r="E16" s="23">
+        <v>1</v>
+      </c>
+      <c r="F16" s="23">
+        <v>1</v>
+      </c>
+      <c r="G16" s="23">
         <v>0</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="23">
         <v>0</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="23">
         <v>15</v>
       </c>
-      <c r="K16" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="H19" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E20" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E21" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E22" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E23" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="H25" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="H26" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="H27" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>81</v>
+      <c r="K16" s="23">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="3" max="3" width="160.375" customWidth="1"/>
+    <col min="1" max="1" width="12.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="17.75499916" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="160.38000488" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1593,174 +2027,255 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="17.250000">
       <c r="A4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="17.250000">
       <c r="A14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="D1" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Header/Assets/UI/Dialogue/DataSheets/Weapon_Table.xlsx
+++ b/Header/Assets/UI/Dialogue/DataSheets/Weapon_Table.xlsx
@@ -502,7 +502,7 @@
       <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -731,6 +731,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1012,7 +1018,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1076,25 +1082,73 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" xfId="4" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" xfId="4" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1417,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1504,493 +1558,493 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="14" customFormat="1">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:11" s="30" customFormat="1">
+      <c r="A3" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="32">
         <v>10</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="32">
         <v>0.9</v>
       </c>
-      <c r="E3" s="17">
-        <v>1</v>
-      </c>
-      <c r="F3" s="17">
+      <c r="E3" s="32">
+        <v>1</v>
+      </c>
+      <c r="F3" s="32">
         <v>0.7</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="32">
         <v>10</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="32">
         <v>10</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="32">
         <v>15</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="32">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="7" customFormat="1">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:11" s="27" customFormat="1">
+      <c r="A4" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="29">
         <v>10</v>
       </c>
-      <c r="D4" s="10">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10">
-        <v>1</v>
-      </c>
-      <c r="G4" s="10">
+      <c r="D4" s="29">
+        <v>1</v>
+      </c>
+      <c r="E4" s="29">
+        <v>1</v>
+      </c>
+      <c r="F4" s="29">
+        <v>1</v>
+      </c>
+      <c r="G4" s="29">
         <v>3</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="29">
         <v>3</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="27">
         <v>15</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="27">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="7" customFormat="1">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:11" s="27" customFormat="1">
+      <c r="A5" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="29">
         <v>10</v>
       </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10">
-        <v>1</v>
-      </c>
-      <c r="G5" s="10">
+      <c r="D5" s="29">
+        <v>1</v>
+      </c>
+      <c r="E5" s="29">
+        <v>1</v>
+      </c>
+      <c r="F5" s="29">
+        <v>1</v>
+      </c>
+      <c r="G5" s="29">
         <v>3</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="29">
         <v>5</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="27">
         <v>25</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="27">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="25" customFormat="1">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:11" s="7" customFormat="1">
+      <c r="A6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="26">
         <v>10</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="26">
         <v>0.5</v>
       </c>
-      <c r="E6" s="27">
-        <v>1</v>
-      </c>
-      <c r="F6" s="27">
+      <c r="E6" s="26">
+        <v>1</v>
+      </c>
+      <c r="F6" s="26">
         <v>0.8</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="26">
         <v>0</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="26">
         <v>0</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="26">
         <v>15</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="22" customFormat="1">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="26">
         <v>10</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="26">
         <v>0.2</v>
       </c>
-      <c r="E7" s="27">
-        <v>1</v>
-      </c>
-      <c r="F7" s="27">
+      <c r="E7" s="26">
+        <v>1</v>
+      </c>
+      <c r="F7" s="26">
         <v>0.1</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="26">
         <v>0</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="26">
         <v>0</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="26">
         <v>20</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="14" customFormat="1">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:11" s="33" customFormat="1">
+      <c r="A8" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="35">
         <v>10</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="35">
         <v>0.7</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="35">
         <v>0.01</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="35">
         <v>0.9</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="35">
         <v>0</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="35">
         <v>0</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="35">
         <v>20</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="35">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="22" customFormat="1">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:11" s="40" customFormat="1">
+      <c r="A9" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="42">
         <v>10</v>
       </c>
-      <c r="D9" s="23">
-        <v>1</v>
-      </c>
-      <c r="E9" s="23">
+      <c r="D9" s="42">
+        <v>1</v>
+      </c>
+      <c r="E9" s="42">
         <v>0.5</v>
       </c>
-      <c r="F9" s="23">
-        <v>1</v>
-      </c>
-      <c r="G9" s="23">
+      <c r="F9" s="42">
+        <v>1</v>
+      </c>
+      <c r="G9" s="42">
         <v>0</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="42">
         <v>0</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="42">
         <v>20</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="42">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="24" customFormat="1">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:11" s="43" customFormat="1">
+      <c r="A10" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="42">
         <v>10</v>
       </c>
-      <c r="D10" s="23">
-        <v>1</v>
-      </c>
-      <c r="E10" s="23">
+      <c r="D10" s="42">
+        <v>1</v>
+      </c>
+      <c r="E10" s="42">
         <v>5</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="42">
         <v>0.1</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="42">
         <v>0</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="42">
         <v>0</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="42">
         <v>10</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="42">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="22" customFormat="1">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:11" s="33" customFormat="1">
+      <c r="A11" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="38">
         <v>10</v>
       </c>
-      <c r="D11" s="23">
-        <v>1</v>
-      </c>
-      <c r="E11" s="23">
-        <v>1</v>
-      </c>
-      <c r="F11" s="23">
-        <v>1</v>
-      </c>
-      <c r="G11" s="23">
+      <c r="D11" s="38">
+        <v>1</v>
+      </c>
+      <c r="E11" s="38">
+        <v>1</v>
+      </c>
+      <c r="F11" s="38">
+        <v>1</v>
+      </c>
+      <c r="G11" s="38">
         <v>0</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="38">
         <v>0</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="38">
         <v>9</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="14" customFormat="1">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:11" s="30" customFormat="1">
+      <c r="A12" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="32">
         <v>10</v>
       </c>
-      <c r="D12" s="17">
-        <v>1</v>
-      </c>
-      <c r="E12" s="17">
-        <v>1</v>
-      </c>
-      <c r="F12" s="17">
+      <c r="D12" s="32">
+        <v>1</v>
+      </c>
+      <c r="E12" s="32">
+        <v>1</v>
+      </c>
+      <c r="F12" s="32">
         <v>0</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="32">
         <v>0</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="32">
         <v>0</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="32">
         <v>30</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="32">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="10" customFormat="1">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:11" s="36" customFormat="1">
+      <c r="A13" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="38">
         <v>10</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="38">
         <v>0.7</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="38">
         <v>0.3</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="38">
         <v>2</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="38">
         <v>0</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="38">
         <v>0</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="38">
         <v>30</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="38">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="7" customFormat="1">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:11" s="39" customFormat="1">
+      <c r="A14" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="35">
         <v>10</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="35">
         <v>0.8</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="35">
         <v>0.3</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="35">
         <v>0.8</v>
       </c>
-      <c r="G14" s="17">
-        <v>1</v>
-      </c>
-      <c r="H14" s="17">
-        <v>1</v>
-      </c>
-      <c r="I14" s="17" t="s">
+      <c r="G14" s="35">
+        <v>1</v>
+      </c>
+      <c r="H14" s="35">
+        <v>1</v>
+      </c>
+      <c r="I14" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="35">
         <v>30</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="35">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:11" s="27" customFormat="1">
+      <c r="A15" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="32">
         <v>10</v>
       </c>
-      <c r="D15" s="17">
-        <v>1</v>
-      </c>
-      <c r="E15" s="17">
-        <v>1</v>
-      </c>
-      <c r="F15" s="17">
-        <v>1</v>
-      </c>
-      <c r="G15" s="17">
+      <c r="D15" s="32">
+        <v>1</v>
+      </c>
+      <c r="E15" s="32">
+        <v>1</v>
+      </c>
+      <c r="F15" s="32">
+        <v>1</v>
+      </c>
+      <c r="G15" s="32">
         <v>9</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="32">
         <v>9</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="32">
         <v>15</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="32">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="25" customFormat="1">
-      <c r="A16" s="21" t="s">
+    <row r="16" spans="1:11" s="40" customFormat="1">
+      <c r="A16" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="42">
         <v>10</v>
       </c>
-      <c r="D16" s="23">
-        <v>1</v>
-      </c>
-      <c r="E16" s="23">
-        <v>1</v>
-      </c>
-      <c r="F16" s="23">
-        <v>1</v>
-      </c>
-      <c r="G16" s="23">
+      <c r="D16" s="42">
+        <v>1</v>
+      </c>
+      <c r="E16" s="42">
+        <v>1</v>
+      </c>
+      <c r="F16" s="42">
+        <v>1</v>
+      </c>
+      <c r="G16" s="42">
         <v>0</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="42">
         <v>0</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="42">
         <v>15</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="42">
         <v>1</v>
       </c>
     </row>

--- a/Header/Assets/UI/Dialogue/DataSheets/Weapon_Table.xlsx
+++ b/Header/Assets/UI/Dialogue/DataSheets/Weapon_Table.xlsx
@@ -502,7 +502,7 @@
       <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -725,18 +725,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1018,7 +1006,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1100,55 +1088,25 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="3" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" xfId="3" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" xfId="4" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="4" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1472,7 +1430,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1558,108 +1516,108 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="30" customFormat="1">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:11" s="22" customFormat="1">
+      <c r="A3" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="26">
         <v>10</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="26">
         <v>0.9</v>
       </c>
-      <c r="E3" s="32">
-        <v>1</v>
-      </c>
-      <c r="F3" s="32">
+      <c r="E3" s="26">
+        <v>1</v>
+      </c>
+      <c r="F3" s="26">
         <v>0.7</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="26">
         <v>10</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="26">
         <v>10</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="32">
+      <c r="J3" s="26">
         <v>15</v>
       </c>
-      <c r="K3" s="32">
+      <c r="K3" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="27" customFormat="1">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:11" s="7" customFormat="1">
+      <c r="A4" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="24">
         <v>10</v>
       </c>
-      <c r="D4" s="29">
-        <v>1</v>
-      </c>
-      <c r="E4" s="29">
-        <v>1</v>
-      </c>
-      <c r="F4" s="29">
-        <v>1</v>
-      </c>
-      <c r="G4" s="29">
+      <c r="D4" s="24">
+        <v>1</v>
+      </c>
+      <c r="E4" s="24">
+        <v>1</v>
+      </c>
+      <c r="F4" s="24">
+        <v>1</v>
+      </c>
+      <c r="G4" s="24">
         <v>3</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="24">
         <v>3</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="7">
         <v>15</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="27" customFormat="1">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:11" s="7" customFormat="1">
+      <c r="A5" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="24">
         <v>10</v>
       </c>
-      <c r="D5" s="29">
-        <v>1</v>
-      </c>
-      <c r="E5" s="29">
-        <v>1</v>
-      </c>
-      <c r="F5" s="29">
-        <v>1</v>
-      </c>
-      <c r="G5" s="29">
+      <c r="D5" s="24">
+        <v>1</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1</v>
+      </c>
+      <c r="F5" s="24">
+        <v>1</v>
+      </c>
+      <c r="G5" s="24">
         <v>3</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="24">
         <v>5</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="7">
         <v>25</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="7">
         <v>5</v>
       </c>
     </row>
@@ -1733,318 +1691,318 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="33" customFormat="1">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:11" s="16" customFormat="1">
+      <c r="A8" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="29">
         <v>10</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="29">
         <v>0.7</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="29">
         <v>0.01</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="29">
         <v>0.9</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="29">
         <v>0</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="29">
         <v>0</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="29">
         <v>20</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="29">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="40" customFormat="1">
-      <c r="A9" s="41" t="s">
+    <row r="9" spans="1:11" s="7" customFormat="1">
+      <c r="A9" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="33">
         <v>10</v>
       </c>
-      <c r="D9" s="42">
-        <v>1</v>
-      </c>
-      <c r="E9" s="42">
+      <c r="D9" s="33">
+        <v>1</v>
+      </c>
+      <c r="E9" s="33">
         <v>0.5</v>
       </c>
-      <c r="F9" s="42">
-        <v>1</v>
-      </c>
-      <c r="G9" s="42">
+      <c r="F9" s="33">
+        <v>1</v>
+      </c>
+      <c r="G9" s="33">
         <v>0</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="33">
         <v>0</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="42">
+      <c r="J9" s="33">
         <v>20</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="33">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="43" customFormat="1">
-      <c r="A10" s="41" t="s">
+    <row r="10" spans="1:11" s="24" customFormat="1">
+      <c r="A10" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="33">
         <v>10</v>
       </c>
-      <c r="D10" s="42">
-        <v>1</v>
-      </c>
-      <c r="E10" s="42">
+      <c r="D10" s="33">
+        <v>1</v>
+      </c>
+      <c r="E10" s="33">
         <v>5</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="33">
         <v>0.1</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="33">
         <v>0</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="33">
         <v>0</v>
       </c>
-      <c r="I10" s="42" t="s">
+      <c r="I10" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="42">
+      <c r="J10" s="33">
         <v>10</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="33">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="33" customFormat="1">
-      <c r="A11" s="37" t="s">
+    <row r="11" spans="1:11" s="16" customFormat="1">
+      <c r="A11" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="31">
         <v>10</v>
       </c>
-      <c r="D11" s="38">
-        <v>1</v>
-      </c>
-      <c r="E11" s="38">
-        <v>1</v>
-      </c>
-      <c r="F11" s="38">
-        <v>1</v>
-      </c>
-      <c r="G11" s="38">
+      <c r="D11" s="31">
+        <v>1</v>
+      </c>
+      <c r="E11" s="31">
+        <v>1</v>
+      </c>
+      <c r="F11" s="31">
+        <v>1</v>
+      </c>
+      <c r="G11" s="31">
         <v>0</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="31">
         <v>0</v>
       </c>
-      <c r="I11" s="38" t="s">
+      <c r="I11" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="31">
         <v>9</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="31">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="30" customFormat="1">
-      <c r="A12" s="31" t="s">
+    <row r="12" spans="1:11" s="22" customFormat="1">
+      <c r="A12" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="26">
         <v>10</v>
       </c>
-      <c r="D12" s="32">
-        <v>1</v>
-      </c>
-      <c r="E12" s="32">
-        <v>1</v>
-      </c>
-      <c r="F12" s="32">
+      <c r="D12" s="26">
+        <v>1</v>
+      </c>
+      <c r="E12" s="26">
+        <v>1</v>
+      </c>
+      <c r="F12" s="26">
         <v>0</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="26">
         <v>0</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="26">
         <v>0</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="26">
         <v>30</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="36" customFormat="1">
-      <c r="A13" s="37" t="s">
+    <row r="13" spans="1:11" s="10" customFormat="1">
+      <c r="A13" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="31">
         <v>10</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="31">
         <v>0.7</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="31">
         <v>0.3</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="31">
         <v>2</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="31">
         <v>0</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="31">
         <v>0</v>
       </c>
-      <c r="I13" s="38" t="s">
+      <c r="I13" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="31">
         <v>30</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="31">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="39" customFormat="1">
-      <c r="A14" s="34" t="s">
+    <row r="14" spans="1:11" s="8" customFormat="1">
+      <c r="A14" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="29">
         <v>10</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="29">
         <v>0.8</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="29">
         <v>0.3</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="29">
         <v>0.8</v>
       </c>
-      <c r="G14" s="35">
-        <v>1</v>
-      </c>
-      <c r="H14" s="35">
-        <v>1</v>
-      </c>
-      <c r="I14" s="35" t="s">
+      <c r="G14" s="29">
+        <v>1</v>
+      </c>
+      <c r="H14" s="29">
+        <v>1</v>
+      </c>
+      <c r="I14" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="29">
         <v>30</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="29">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="27" customFormat="1">
-      <c r="A15" s="31" t="s">
+    <row r="15" spans="1:11" s="7" customFormat="1">
+      <c r="A15" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="26">
         <v>10</v>
       </c>
-      <c r="D15" s="32">
-        <v>1</v>
-      </c>
-      <c r="E15" s="32">
-        <v>1</v>
-      </c>
-      <c r="F15" s="32">
-        <v>1</v>
-      </c>
-      <c r="G15" s="32">
+      <c r="D15" s="26">
+        <v>1</v>
+      </c>
+      <c r="E15" s="26">
+        <v>1</v>
+      </c>
+      <c r="F15" s="26">
+        <v>1</v>
+      </c>
+      <c r="G15" s="26">
         <v>9</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="26">
         <v>9</v>
       </c>
-      <c r="I15" s="32" t="s">
+      <c r="I15" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="32">
+      <c r="J15" s="26">
         <v>15</v>
       </c>
-      <c r="K15" s="32">
+      <c r="K15" s="26">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="40" customFormat="1">
-      <c r="A16" s="41" t="s">
+    <row r="16" spans="1:11" s="7" customFormat="1">
+      <c r="A16" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="33">
         <v>10</v>
       </c>
-      <c r="D16" s="42">
-        <v>1</v>
-      </c>
-      <c r="E16" s="42">
-        <v>1</v>
-      </c>
-      <c r="F16" s="42">
-        <v>1</v>
-      </c>
-      <c r="G16" s="42">
+      <c r="D16" s="33">
+        <v>1</v>
+      </c>
+      <c r="E16" s="33">
+        <v>1</v>
+      </c>
+      <c r="F16" s="33">
+        <v>1</v>
+      </c>
+      <c r="G16" s="33">
         <v>0</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="33">
         <v>0</v>
       </c>
-      <c r="I16" s="42" t="s">
+      <c r="I16" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="42">
+      <c r="J16" s="33">
         <v>15</v>
       </c>
-      <c r="K16" s="42">
+      <c r="K16" s="33">
         <v>1</v>
       </c>
     </row>
